--- a/3_Charts _And_Visuals/visualizations.xlsx
+++ b/3_Charts _And_Visuals/visualizations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\Portfolio\Research\Consumer Preferences and Behavior in the Energy Drink Market\Consumer-Preferences-and-Behavior-in-the-Energy-Drink-Market\3_Charts _And_Visuals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BC362B1-E9A5-439A-9C10-B44415B8078D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174B15F6-D477-4D7C-BF65-43B8DEF3C2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE555447-6BF9-4417-8E6D-0969442666F8}"/>
   </bookViews>
@@ -209,6 +209,28 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -226,28 +248,6 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -5482,14 +5482,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5FE7EF74-7304-4ADB-B4F0-B4B6F2A0A019}" name="Table3" displayName="Table3" ref="A32:E35" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5FE7EF74-7304-4ADB-B4F0-B4B6F2A0A019}" name="Table3" displayName="Table3" ref="A32:E35" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A32:E35" xr:uid="{5FE7EF74-7304-4ADB-B4F0-B4B6F2A0A019}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CCE5227F-2DD9-474B-92C6-77A7642DC43E}" name="Age Group" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{16F3693C-B35F-4484-BD8F-9F510A95D543}" name="Daily" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{ADE01642-CA66-49E9-8F28-353FA660FED8}" name="3–4 Times/Wk" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{4F0E09F0-3D23-462C-A4DB-C89D8909B636}" name="Occasionally" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{C41212CB-2EE1-4C91-B5DF-97C77FF55B85}" name="Never" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{CCE5227F-2DD9-474B-92C6-77A7642DC43E}" name="Age Group" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{16F3693C-B35F-4484-BD8F-9F510A95D543}" name="Daily" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{ADE01642-CA66-49E9-8F28-353FA660FED8}" name="3–4 Times/Wk" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{4F0E09F0-3D23-462C-A4DB-C89D8909B636}" name="Occasionally" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{C41212CB-2EE1-4C91-B5DF-97C77FF55B85}" name="Never" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5815,7 +5815,7 @@
   <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:D61"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5922,7 +5922,7 @@
         <v>0.47160000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>

--- a/3_Charts _And_Visuals/visualizations.xlsx
+++ b/3_Charts _And_Visuals/visualizations.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\Portfolio\Research\Consumer Preferences and Behavior in the Energy Drink Market\Consumer-Preferences-and-Behavior-in-the-Energy-Drink-Market\3_Charts _And_Visuals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174B15F6-D477-4D7C-BF65-43B8DEF3C2A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E842CD7-0332-4137-81CC-283BD728CF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE555447-6BF9-4417-8E6D-0969442666F8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{DE555447-6BF9-4417-8E6D-0969442666F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Flavor</t>
   </si>
@@ -145,6 +146,51 @@
   <si>
     <t>EGP 10,001+</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Under 18</t>
+  </si>
+  <si>
+    <t>35–44</t>
+  </si>
+  <si>
+    <t>45+</t>
+  </si>
+  <si>
+    <t>Citrus Flavor (%)</t>
+  </si>
+  <si>
+    <t>Berry Flavor (%)</t>
+  </si>
+  <si>
+    <t>Tropical Flavor (%)</t>
+  </si>
+  <si>
+    <t>Mint Flavor (%)</t>
+  </si>
+  <si>
+    <t>Coffee Flavor (%)</t>
+  </si>
+  <si>
+    <t>Percent</t>
+  </si>
+  <si>
+    <t>Can</t>
+  </si>
+  <si>
+    <t>Plastic bottle</t>
+  </si>
+  <si>
+    <t>Glass bottle</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Packging type</t>
+  </si>
 </sst>
 </file>
 
@@ -153,7 +199,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,16 +215,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="62"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="60"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -186,11 +265,109 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="61"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="61"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="61"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="61"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -203,11 +380,218 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Sheet3" xfId="2" xr:uid="{973569A9-8C1B-426F-AD79-BA4B82291541}"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color indexed="60"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="63"/>
+        </left>
+        <right style="thin">
+          <color indexed="63"/>
+        </right>
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color indexed="62"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="31"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="22"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="61"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="22"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color indexed="62"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="63"/>
+        </left>
+        <right style="thin">
+          <color indexed="63"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2116,6 +2500,7 @@
         <c:axId val="513297904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2681,6 +3066,946 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="103"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="3"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Flavor</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Preference By Age</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Citrus Flavor (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="54000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$73:$A$76</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Under 18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18–24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25–34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35–44</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$73:$B$76</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-55E5-4590-983F-054F97AEA914}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Berry Flavor (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:tint val="77000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$73:$A$76</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Under 18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18–24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25–34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35–44</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$73:$C$76</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-55E5-4590-983F-054F97AEA914}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tropical Flavor (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$73:$A$76</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Under 18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18–24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25–34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35–44</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$73:$D$76</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.66700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-55E5-4590-983F-054F97AEA914}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mint Flavor (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="76000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$73:$A$76</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Under 18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18–24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25–34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35–44</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$73:$E$76</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28599999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-55E5-4590-983F-054F97AEA914}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coffee Flavor (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:shade val="53000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$73:$A$76</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Under 18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18–24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25–34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35–44</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$73:$F$76</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-55E5-4590-983F-054F97AEA914}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1675830991"/>
+        <c:axId val="1675824751"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1675830991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1675824751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1675824751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1675830991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet4!$A$2:$A$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet4!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Other</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Glass bottle</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Plastic bottle</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Can</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet4!$B$2:$B$6</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Sheet4!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.6756756756756763</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.351351351351353</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.972972972972974</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.729729729729698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A745-4773-AB9C-0D2AA187F78A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1675829071"/>
+        <c:axId val="1675847311"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1675829071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1675847311"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1675847311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1675829071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
   <a:schemeClr val="accent1"/>
@@ -2745,6 +4070,52 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinearReversed" id="21">
+  <a:schemeClr val="accent1"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -4764,6 +6135,1014 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5450,6 +7829,83 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9087642-7888-C097-7FA6-C6E3DDC39AB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E306452-83E5-7E42-E188-4CA04AD24DF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5461,7 +7917,7 @@
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{6D201610-FB9A-4159-8233-8503DDE6F448}" name="Flavor"/>
-    <tableColumn id="2" xr3:uid="{88A5CE09-7E61-427C-BCE3-E261B695EE49}" name="Percentage" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{88A5CE09-7E61-427C-BCE3-E261B695EE49}" name="Percentage" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5482,14 +7938,43 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5FE7EF74-7304-4ADB-B4F0-B4B6F2A0A019}" name="Table3" displayName="Table3" ref="A32:E35" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{5FE7EF74-7304-4ADB-B4F0-B4B6F2A0A019}" name="Table3" displayName="Table3" ref="A32:E35" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A32:E35" xr:uid="{5FE7EF74-7304-4ADB-B4F0-B4B6F2A0A019}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{CCE5227F-2DD9-474B-92C6-77A7642DC43E}" name="Age Group" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{16F3693C-B35F-4484-BD8F-9F510A95D543}" name="Daily" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{ADE01642-CA66-49E9-8F28-353FA660FED8}" name="3–4 Times/Wk" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{4F0E09F0-3D23-462C-A4DB-C89D8909B636}" name="Occasionally" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{C41212CB-2EE1-4C91-B5DF-97C77FF55B85}" name="Never" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CCE5227F-2DD9-474B-92C6-77A7642DC43E}" name="Age Group" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{16F3693C-B35F-4484-BD8F-9F510A95D543}" name="Daily" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{ADE01642-CA66-49E9-8F28-353FA660FED8}" name="3–4 Times/Wk" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{4F0E09F0-3D23-462C-A4DB-C89D8909B636}" name="Occasionally" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{C41212CB-2EE1-4C91-B5DF-97C77FF55B85}" name="Never" dataDxfId="13"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{007DA098-76D9-4B9D-8EC1-1212AC34F42B}" name="Table4" displayName="Table4" ref="A72:F77" totalsRowShown="0" headerRowDxfId="5" dataDxfId="6">
+  <autoFilter ref="A72:F77" xr:uid="{007DA098-76D9-4B9D-8EC1-1212AC34F42B}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{59F1FB1E-CBA8-4377-940D-D86E22B7BC4B}" name="Age Group" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{121E8FA4-1AB0-4E9F-98E8-D4D82ACFC4E2}" name="Citrus Flavor (%)" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{F2421C4D-E382-4438-85E2-EB65C2E56AC2}" name="Berry Flavor (%)" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{1A9515C7-5B8F-497B-82D2-4ED25BFB0CCE}" name="Tropical Flavor (%)" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{B3BE1AF7-26DD-46F7-8186-C125D321811C}" name="Mint Flavor (%)" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{1771606E-3628-488B-A3A7-3AC30B6455B5}" name="Coffee Flavor (%)" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{769F24B7-45FA-4B4E-8DD5-004AA66FFB8A}" name="Table5" displayName="Table5" ref="A1:B6" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3" headerRowCellStyle="Normal_Sheet3">
+  <autoFilter ref="A1:B6" xr:uid="{769F24B7-45FA-4B4E-8DD5-004AA66FFB8A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B6">
+    <sortCondition ref="B1:B6"/>
+  </sortState>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{0C1086EC-9DC9-4587-9565-ED5154B7EFE7}" name="Packging type" dataDxfId="1" dataCellStyle="Normal_Sheet3"/>
+    <tableColumn id="3" xr3:uid="{052EE067-F488-4406-9DCB-5C5FB1F7A808}" name="Percent" dataDxfId="0" dataCellStyle="Percent"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5812,18 +8297,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5147B588-CA7E-4450-8E4C-48B01BC98794}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -6152,13 +8639,201 @@
         <v>0.26900000000000002</v>
       </c>
     </row>
+    <row r="72" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B73" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C73" s="5">
+        <v>1</v>
+      </c>
+      <c r="D73" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="F73" s="5">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B74" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C74" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="D74" s="5">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F74" s="5">
+        <v>0.109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B75" s="5">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="C75" s="5">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="D75" s="5">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" s="5">
+        <v>1</v>
+      </c>
+      <c r="C76" s="5">
+        <v>0</v>
+      </c>
+      <c r="D76" s="5">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="E76" s="5">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77" s="5">
+        <v>0</v>
+      </c>
+      <c r="C77" s="5">
+        <v>0</v>
+      </c>
+      <c r="D77" s="5">
+        <v>0</v>
+      </c>
+      <c r="E77" s="5">
+        <v>0</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63BA2F19-14A6-4DCE-A48B-79D442A4D927}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="12">
+        <v>5.6756756756756763</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="13">
+        <v>11.351351351351353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="24" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="13">
+        <v>12.972972972972974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="13">
+        <v>69.729729729729698</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="14">
+        <v>99.729729729729726</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>